--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_999/metrics/Trial_294__Reeval_LHS_Modell_2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_999/metrics/Trial_294__Reeval_LHS_Modell_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>True Values Train</t>
   </si>
@@ -35,10 +35,10 @@
     <t>Predictions Test</t>
   </si>
   <si>
-    <t>Chart_Y</t>
+    <t>Chart_X</t>
   </si>
   <si>
-    <t>Chart_X</t>
+    <t>Chart_Y</t>
   </si>
   <si>
     <t>Epoch</t>
@@ -6131,7 +6131,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$2:$H$3</c:f>
+              <c:f>All_Data!$R$2:$R$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6146,7 +6146,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$2:$G$3</c:f>
+              <c:f>All_Data!$S$2:$S$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6175,7 +6175,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$4:$H$5</c:f>
+              <c:f>All_Data!$R$4:$R$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6190,7 +6190,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$4:$G$5</c:f>
+              <c:f>All_Data!$S$4:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6219,7 +6219,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$6:$H$7</c:f>
+              <c:f>All_Data!$R$6:$R$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6234,7 +6234,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$6:$G$7</c:f>
+              <c:f>All_Data!$S$6:$S$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6746,13 +6746,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H777"/>
+  <dimension ref="A1:S777"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6777,8 +6777,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>355.739</v>
       </c>
@@ -6803,8 +6809,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>359.326</v>
       </c>
@@ -6824,13 +6836,19 @@
         <v>362.4470825195312</v>
       </c>
       <c r="G3">
+        <v>378</v>
+      </c>
+      <c r="H3">
+        <v>378</v>
+      </c>
+      <c r="R3">
         <v>376</v>
       </c>
-      <c r="H3">
+      <c r="S3">
         <v>376</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>340.662</v>
       </c>
@@ -6850,13 +6868,19 @@
         <v>357.341064453125</v>
       </c>
       <c r="G4">
+        <v>378</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="R4">
         <v>376</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>336.328</v>
       </c>
@@ -6876,13 +6900,19 @@
         <v>341.1712646484375</v>
       </c>
       <c r="G5">
+        <v>378</v>
+      </c>
+      <c r="H5">
+        <v>378</v>
+      </c>
+      <c r="R5">
         <v>376</v>
       </c>
-      <c r="H5">
+      <c r="S5">
         <v>376</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>341.263</v>
       </c>
@@ -6902,13 +6932,19 @@
         <v>359.6773986816406</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>378</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
         <v>376</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>358.25</v>
       </c>
@@ -6928,13 +6964,19 @@
         <v>365.9745483398438</v>
       </c>
       <c r="G7">
+        <v>378</v>
+      </c>
+      <c r="H7">
+        <v>378</v>
+      </c>
+      <c r="R7">
         <v>376</v>
       </c>
-      <c r="H7">
+      <c r="S7">
         <v>376</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>355.891</v>
       </c>
@@ -6954,7 +6996,7 @@
         <v>343.1667175292969</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>340.957</v>
       </c>
@@ -6974,7 +7016,7 @@
         <v>355.3918762207031</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>365.59</v>
       </c>
@@ -6994,7 +7036,7 @@
         <v>339.9311828613281</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>359.512</v>
       </c>
@@ -7014,7 +7056,7 @@
         <v>358.6833190917969</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>349.72</v>
       </c>
@@ -7034,7 +7076,7 @@
         <v>335.8948669433594</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>355.672</v>
       </c>
@@ -7054,7 +7096,7 @@
         <v>343.893798828125</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>359.602</v>
       </c>
@@ -7074,7 +7116,7 @@
         <v>359.9918212890625</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>361.211</v>
       </c>
@@ -7094,7 +7136,7 @@
         <v>357.9538879394531</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>330.866</v>
       </c>
